--- a/scrapers/scraped-data/IDJM 2023_ilca 6.xlsx
+++ b/scrapers/scraped-data/IDJM 2023_ilca 6.xlsx
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -779,7 +779,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -826,7 +826,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -873,7 +873,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1108,7 +1108,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1155,7 +1155,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1202,7 +1202,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1249,7 +1249,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1578,7 +1578,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1766,7 +1766,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1860,7 +1860,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -2189,7 +2189,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -2330,7 +2330,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -2518,7 +2518,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -2612,7 +2612,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -2659,7 +2659,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -2847,7 +2847,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -2941,7 +2941,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -3035,7 +3035,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -3129,7 +3129,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -3176,7 +3176,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -3411,7 +3411,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -3458,7 +3458,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -3693,7 +3693,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -3740,7 +3740,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -3787,7 +3787,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -3834,7 +3834,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -3881,7 +3881,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -3928,7 +3928,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -3975,7 +3975,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -4022,7 +4022,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -4069,7 +4069,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -4304,7 +4304,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -4351,7 +4351,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -4445,7 +4445,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -4539,7 +4539,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -4586,7 +4586,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -4872,7 +4872,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -5060,7 +5060,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -5154,7 +5154,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -5248,7 +5248,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -5342,7 +5342,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -5389,7 +5389,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -5436,7 +5436,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -5530,7 +5530,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -5812,7 +5812,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -5859,7 +5859,7 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -5953,7 +5953,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -6141,7 +6141,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -6188,7 +6188,7 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -6235,7 +6235,7 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -6282,7 +6282,7 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -6329,7 +6329,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -6376,7 +6376,7 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -6423,7 +6423,7 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -6470,7 +6470,7 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -6564,7 +6564,7 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -6709,7 +6709,7 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -6850,7 +6850,7 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -6897,7 +6897,7 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -6944,7 +6944,7 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -7038,7 +7038,7 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -7132,7 +7132,7 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -7179,7 +7179,7 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -7226,7 +7226,7 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -7273,7 +7273,7 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -7320,7 +7320,7 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -7414,7 +7414,7 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -7508,7 +7508,7 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -7555,7 +7555,7 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -7602,7 +7602,7 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -7649,7 +7649,7 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -7700,7 +7700,7 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -7794,7 +7794,7 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -7841,7 +7841,7 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -7888,7 +7888,7 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -7935,7 +7935,7 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -7982,7 +7982,7 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -8029,7 +8029,7 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -8127,7 +8127,7 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
@@ -8174,7 +8174,7 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
@@ -8268,7 +8268,7 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -8315,7 +8315,7 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
@@ -8409,7 +8409,7 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -8456,7 +8456,7 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
@@ -8503,7 +8503,7 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
@@ -8550,7 +8550,7 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
@@ -8597,7 +8597,7 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
@@ -8644,7 +8644,7 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
@@ -8789,7 +8789,7 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
@@ -8840,7 +8840,7 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
@@ -8887,7 +8887,7 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
@@ -8934,7 +8934,7 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
@@ -8981,7 +8981,7 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
@@ -9028,7 +9028,7 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
@@ -9075,7 +9075,7 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
@@ -9122,7 +9122,7 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
@@ -9169,7 +9169,7 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
@@ -9263,7 +9263,7 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
@@ -9357,7 +9357,7 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
@@ -9404,7 +9404,7 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
@@ -9498,7 +9498,7 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
@@ -9545,7 +9545,7 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
@@ -9592,7 +9592,7 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
@@ -9643,7 +9643,7 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
@@ -9690,7 +9690,7 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
@@ -9737,7 +9737,7 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
@@ -9784,7 +9784,7 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
@@ -9835,7 +9835,7 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
@@ -10070,7 +10070,7 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
@@ -10262,7 +10262,7 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
@@ -10309,7 +10309,7 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
@@ -10356,7 +10356,7 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
@@ -10450,7 +10450,7 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
@@ -10497,7 +10497,7 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
@@ -10544,7 +10544,7 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
@@ -10591,7 +10591,7 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
@@ -10638,7 +10638,7 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
@@ -10732,7 +10732,7 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
@@ -10826,7 +10826,7 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
@@ -10873,7 +10873,7 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
@@ -10920,7 +10920,7 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
@@ -11018,7 +11018,7 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
@@ -11065,7 +11065,7 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
@@ -11112,7 +11112,7 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
@@ -11159,7 +11159,7 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
@@ -11206,7 +11206,7 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
@@ -11253,7 +11253,7 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
@@ -11300,7 +11300,7 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
@@ -11347,7 +11347,7 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
@@ -11394,7 +11394,7 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
@@ -11441,7 +11441,7 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
@@ -11488,7 +11488,7 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
@@ -11535,7 +11535,7 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
@@ -11629,7 +11629,7 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
@@ -11676,7 +11676,7 @@
         </is>
       </c>
       <c r="B239" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
@@ -11723,7 +11723,7 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
@@ -11770,7 +11770,7 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
@@ -11817,7 +11817,7 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
@@ -11864,7 +11864,7 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
@@ -11911,7 +11911,7 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
@@ -12052,7 +12052,7 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
@@ -12099,7 +12099,7 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
@@ -12150,7 +12150,7 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
@@ -12197,7 +12197,7 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
@@ -12244,7 +12244,7 @@
         </is>
       </c>
       <c r="B251" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
@@ -12291,7 +12291,7 @@
         </is>
       </c>
       <c r="B252" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
@@ -12338,7 +12338,7 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
@@ -12385,7 +12385,7 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
@@ -12432,7 +12432,7 @@
         </is>
       </c>
       <c r="B255" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
@@ -12479,7 +12479,7 @@
         </is>
       </c>
       <c r="B256" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
@@ -12526,7 +12526,7 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
@@ -12667,7 +12667,7 @@
         </is>
       </c>
       <c r="B260" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
@@ -12714,7 +12714,7 @@
         </is>
       </c>
       <c r="B261" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
@@ -12761,7 +12761,7 @@
         </is>
       </c>
       <c r="B262" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
@@ -12808,7 +12808,7 @@
         </is>
       </c>
       <c r="B263" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
@@ -12855,7 +12855,7 @@
         </is>
       </c>
       <c r="B264" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         </is>
       </c>
       <c r="B265" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
         </is>
       </c>
       <c r="B266" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="B267" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
@@ -13043,7 +13043,7 @@
         </is>
       </c>
       <c r="B268" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
@@ -13090,7 +13090,7 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
@@ -13137,7 +13137,7 @@
         </is>
       </c>
       <c r="B270" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C270" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         </is>
       </c>
       <c r="B271" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C271" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
@@ -13278,7 +13278,7 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C273" t="inlineStr">
         <is>
@@ -13325,7 +13325,7 @@
         </is>
       </c>
       <c r="B274" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
@@ -13372,7 +13372,7 @@
         </is>
       </c>
       <c r="B275" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         </is>
       </c>
       <c r="B276" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C276" t="inlineStr">
         <is>
@@ -13466,7 +13466,7 @@
         </is>
       </c>
       <c r="B277" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C277" t="inlineStr">
         <is>
@@ -13513,7 +13513,7 @@
         </is>
       </c>
       <c r="B278" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
@@ -13560,7 +13560,7 @@
         </is>
       </c>
       <c r="B279" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C279" t="inlineStr">
         <is>
@@ -13607,7 +13607,7 @@
         </is>
       </c>
       <c r="B280" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C280" t="inlineStr">
         <is>
@@ -13658,7 +13658,7 @@
         </is>
       </c>
       <c r="B281" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C281" t="inlineStr">
         <is>
@@ -13705,7 +13705,7 @@
         </is>
       </c>
       <c r="B282" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C282" t="inlineStr">
         <is>
@@ -13752,7 +13752,7 @@
         </is>
       </c>
       <c r="B283" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C283" t="inlineStr">
         <is>
@@ -13799,7 +13799,7 @@
         </is>
       </c>
       <c r="B284" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C284" t="inlineStr">
         <is>
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="B285" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C285" t="inlineStr">
         <is>
@@ -13893,7 +13893,7 @@
         </is>
       </c>
       <c r="B286" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C286" t="inlineStr">
         <is>
@@ -13940,7 +13940,7 @@
         </is>
       </c>
       <c r="B287" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C287" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         </is>
       </c>
       <c r="B288" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C288" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         </is>
       </c>
       <c r="B289" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C289" t="inlineStr">
         <is>
@@ -14081,7 +14081,7 @@
         </is>
       </c>
       <c r="B290" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C290" t="inlineStr">
         <is>
@@ -14128,7 +14128,7 @@
         </is>
       </c>
       <c r="B291" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C291" t="inlineStr">
         <is>
@@ -14175,7 +14175,7 @@
         </is>
       </c>
       <c r="B292" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C292" t="inlineStr">
         <is>
@@ -14222,7 +14222,7 @@
         </is>
       </c>
       <c r="B293" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C293" t="inlineStr">
         <is>
@@ -14269,7 +14269,7 @@
         </is>
       </c>
       <c r="B294" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C294" t="inlineStr">
         <is>
@@ -14316,7 +14316,7 @@
         </is>
       </c>
       <c r="B295" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C295" t="inlineStr">
         <is>
@@ -14363,7 +14363,7 @@
         </is>
       </c>
       <c r="B296" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C296" t="inlineStr">
         <is>
@@ -14410,7 +14410,7 @@
         </is>
       </c>
       <c r="B297" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C297" t="inlineStr">
         <is>
@@ -14457,7 +14457,7 @@
         </is>
       </c>
       <c r="B298" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C298" t="inlineStr">
         <is>
@@ -14504,7 +14504,7 @@
         </is>
       </c>
       <c r="B299" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C299" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         </is>
       </c>
       <c r="B300" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C300" t="inlineStr">
         <is>
@@ -14598,7 +14598,7 @@
         </is>
       </c>
       <c r="B301" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C301" t="inlineStr">
         <is>
@@ -14645,7 +14645,7 @@
         </is>
       </c>
       <c r="B302" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C302" t="inlineStr">
         <is>
@@ -14692,7 +14692,7 @@
         </is>
       </c>
       <c r="B303" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C303" t="inlineStr">
         <is>
@@ -14739,7 +14739,7 @@
         </is>
       </c>
       <c r="B304" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C304" t="inlineStr">
         <is>
@@ -14786,7 +14786,7 @@
         </is>
       </c>
       <c r="B305" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C305" t="inlineStr">
         <is>
@@ -14833,7 +14833,7 @@
         </is>
       </c>
       <c r="B306" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C306" t="inlineStr">
         <is>
@@ -14880,7 +14880,7 @@
         </is>
       </c>
       <c r="B307" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C307" t="inlineStr">
         <is>
@@ -14927,7 +14927,7 @@
         </is>
       </c>
       <c r="B308" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C308" t="inlineStr">
         <is>
@@ -14974,7 +14974,7 @@
         </is>
       </c>
       <c r="B309" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C309" t="inlineStr">
         <is>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="B310" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C310" t="inlineStr">
         <is>
@@ -15068,7 +15068,7 @@
         </is>
       </c>
       <c r="B311" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C311" t="inlineStr">
         <is>
@@ -15115,7 +15115,7 @@
         </is>
       </c>
       <c r="B312" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C312" t="inlineStr">
         <is>
@@ -15162,7 +15162,7 @@
         </is>
       </c>
       <c r="B313" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C313" t="inlineStr">
         <is>
@@ -15209,7 +15209,7 @@
         </is>
       </c>
       <c r="B314" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C314" t="inlineStr">
         <is>
@@ -15256,7 +15256,7 @@
         </is>
       </c>
       <c r="B315" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C315" t="inlineStr">
         <is>
@@ -15303,7 +15303,7 @@
         </is>
       </c>
       <c r="B316" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C316" t="inlineStr">
         <is>
@@ -15350,7 +15350,7 @@
         </is>
       </c>
       <c r="B317" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C317" t="inlineStr">
         <is>
@@ -15397,7 +15397,7 @@
         </is>
       </c>
       <c r="B318" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C318" t="inlineStr">
         <is>
@@ -15444,7 +15444,7 @@
         </is>
       </c>
       <c r="B319" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C319" t="inlineStr">
         <is>
@@ -15491,7 +15491,7 @@
         </is>
       </c>
       <c r="B320" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C320" t="inlineStr">
         <is>
@@ -15538,7 +15538,7 @@
         </is>
       </c>
       <c r="B321" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C321" t="inlineStr">
         <is>
@@ -15585,7 +15585,7 @@
         </is>
       </c>
       <c r="B322" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C322" t="inlineStr">
         <is>
@@ -15632,7 +15632,7 @@
         </is>
       </c>
       <c r="B323" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C323" t="inlineStr">
         <is>
@@ -15679,7 +15679,7 @@
         </is>
       </c>
       <c r="B324" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C324" t="inlineStr">
         <is>
@@ -15726,7 +15726,7 @@
         </is>
       </c>
       <c r="B325" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C325" t="inlineStr">
         <is>
@@ -15773,7 +15773,7 @@
         </is>
       </c>
       <c r="B326" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C326" t="inlineStr">
         <is>
@@ -15820,7 +15820,7 @@
         </is>
       </c>
       <c r="B327" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C327" t="inlineStr">
         <is>
@@ -15867,7 +15867,7 @@
         </is>
       </c>
       <c r="B328" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C328" t="inlineStr">
         <is>
@@ -15914,7 +15914,7 @@
         </is>
       </c>
       <c r="B329" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C329" t="inlineStr">
         <is>
@@ -15961,7 +15961,7 @@
         </is>
       </c>
       <c r="B330" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C330" t="inlineStr">
         <is>
@@ -16008,7 +16008,7 @@
         </is>
       </c>
       <c r="B331" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C331" t="inlineStr">
         <is>
@@ -16055,7 +16055,7 @@
         </is>
       </c>
       <c r="B332" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C332" t="inlineStr">
         <is>
@@ -16102,7 +16102,7 @@
         </is>
       </c>
       <c r="B333" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C333" t="inlineStr">
         <is>
@@ -16149,7 +16149,7 @@
         </is>
       </c>
       <c r="B334" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C334" t="inlineStr">
         <is>
@@ -16200,7 +16200,7 @@
         </is>
       </c>
       <c r="B335" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C335" t="inlineStr">
         <is>
@@ -16247,7 +16247,7 @@
         </is>
       </c>
       <c r="B336" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C336" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         </is>
       </c>
       <c r="B337" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C337" t="inlineStr">
         <is>
@@ -16341,7 +16341,7 @@
         </is>
       </c>
       <c r="B338" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C338" t="inlineStr">
         <is>
@@ -16388,7 +16388,7 @@
         </is>
       </c>
       <c r="B339" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C339" t="inlineStr">
         <is>
@@ -16435,7 +16435,7 @@
         </is>
       </c>
       <c r="B340" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C340" t="inlineStr">
         <is>
@@ -16482,7 +16482,7 @@
         </is>
       </c>
       <c r="B341" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C341" t="inlineStr">
         <is>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="B342" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C342" t="inlineStr">
         <is>
@@ -16580,7 +16580,7 @@
         </is>
       </c>
       <c r="B343" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C343" t="inlineStr">
         <is>
@@ -16631,7 +16631,7 @@
         </is>
       </c>
       <c r="B344" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C344" t="inlineStr">
         <is>
@@ -16678,7 +16678,7 @@
         </is>
       </c>
       <c r="B345" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C345" t="inlineStr">
         <is>
@@ -16725,7 +16725,7 @@
         </is>
       </c>
       <c r="B346" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C346" t="inlineStr">
         <is>
@@ -16772,7 +16772,7 @@
         </is>
       </c>
       <c r="B347" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C347" t="inlineStr">
         <is>
@@ -16819,7 +16819,7 @@
         </is>
       </c>
       <c r="B348" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C348" t="inlineStr">
         <is>
@@ -16866,7 +16866,7 @@
         </is>
       </c>
       <c r="B349" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C349" t="inlineStr">
         <is>
@@ -16913,7 +16913,7 @@
         </is>
       </c>
       <c r="B350" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C350" t="inlineStr">
         <is>
@@ -16960,7 +16960,7 @@
         </is>
       </c>
       <c r="B351" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C351" t="inlineStr">
         <is>
@@ -17007,7 +17007,7 @@
         </is>
       </c>
       <c r="B352" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C352" t="inlineStr">
         <is>
@@ -17054,7 +17054,7 @@
         </is>
       </c>
       <c r="B353" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C353" t="inlineStr">
         <is>
@@ -17101,7 +17101,7 @@
         </is>
       </c>
       <c r="B354" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C354" t="inlineStr">
         <is>
@@ -17148,7 +17148,7 @@
         </is>
       </c>
       <c r="B355" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C355" t="inlineStr">
         <is>
@@ -17195,7 +17195,7 @@
         </is>
       </c>
       <c r="B356" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C356" t="inlineStr">
         <is>
@@ -17242,7 +17242,7 @@
         </is>
       </c>
       <c r="B357" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C357" t="inlineStr">
         <is>
@@ -17289,7 +17289,7 @@
         </is>
       </c>
       <c r="B358" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C358" t="inlineStr">
         <is>
@@ -17336,7 +17336,7 @@
         </is>
       </c>
       <c r="B359" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C359" t="inlineStr">
         <is>
@@ -17383,7 +17383,7 @@
         </is>
       </c>
       <c r="B360" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C360" t="inlineStr">
         <is>
@@ -17434,7 +17434,7 @@
         </is>
       </c>
       <c r="B361" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C361" t="inlineStr">
         <is>
@@ -17485,7 +17485,7 @@
         </is>
       </c>
       <c r="B362" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C362" t="inlineStr">
         <is>
@@ -17532,7 +17532,7 @@
         </is>
       </c>
       <c r="B363" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C363" t="inlineStr">
         <is>
@@ -17579,7 +17579,7 @@
         </is>
       </c>
       <c r="B364" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C364" t="inlineStr">
         <is>
@@ -17626,7 +17626,7 @@
         </is>
       </c>
       <c r="B365" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C365" t="inlineStr">
         <is>
@@ -17673,7 +17673,7 @@
         </is>
       </c>
       <c r="B366" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C366" t="inlineStr">
         <is>
@@ -17720,7 +17720,7 @@
         </is>
       </c>
       <c r="B367" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C367" t="inlineStr">
         <is>
@@ -17767,7 +17767,7 @@
         </is>
       </c>
       <c r="B368" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C368" t="inlineStr">
         <is>
@@ -17814,7 +17814,7 @@
         </is>
       </c>
       <c r="B369" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C369" t="inlineStr">
         <is>
@@ -17865,7 +17865,7 @@
         </is>
       </c>
       <c r="B370" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C370" t="inlineStr">
         <is>
@@ -17912,7 +17912,7 @@
         </is>
       </c>
       <c r="B371" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C371" t="inlineStr">
         <is>
@@ -17959,7 +17959,7 @@
         </is>
       </c>
       <c r="B372" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C372" t="inlineStr">
         <is>
@@ -18006,7 +18006,7 @@
         </is>
       </c>
       <c r="B373" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C373" t="inlineStr">
         <is>
@@ -18053,7 +18053,7 @@
         </is>
       </c>
       <c r="B374" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C374" t="inlineStr">
         <is>
@@ -18100,7 +18100,7 @@
         </is>
       </c>
       <c r="B375" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C375" t="inlineStr">
         <is>
@@ -18147,7 +18147,7 @@
         </is>
       </c>
       <c r="B376" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C376" t="inlineStr">
         <is>
@@ -18194,7 +18194,7 @@
         </is>
       </c>
       <c r="B377" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C377" t="inlineStr">
         <is>
@@ -18241,7 +18241,7 @@
         </is>
       </c>
       <c r="B378" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C378" t="inlineStr">
         <is>
@@ -18288,7 +18288,7 @@
         </is>
       </c>
       <c r="B379" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C379" t="inlineStr">
         <is>
@@ -18335,7 +18335,7 @@
         </is>
       </c>
       <c r="B380" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C380" t="inlineStr">
         <is>
@@ -18382,7 +18382,7 @@
         </is>
       </c>
       <c r="B381" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C381" t="inlineStr">
         <is>
@@ -18429,7 +18429,7 @@
         </is>
       </c>
       <c r="B382" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C382" t="inlineStr">
         <is>
@@ -18476,7 +18476,7 @@
         </is>
       </c>
       <c r="B383" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C383" t="inlineStr">
         <is>
@@ -18523,7 +18523,7 @@
         </is>
       </c>
       <c r="B384" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C384" t="inlineStr">
         <is>
@@ -18570,7 +18570,7 @@
         </is>
       </c>
       <c r="B385" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C385" t="inlineStr">
         <is>
@@ -18617,7 +18617,7 @@
         </is>
       </c>
       <c r="B386" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C386" t="inlineStr">
         <is>
@@ -18664,7 +18664,7 @@
         </is>
       </c>
       <c r="B387" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C387" t="inlineStr">
         <is>
@@ -18715,7 +18715,7 @@
         </is>
       </c>
       <c r="B388" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C388" t="inlineStr">
         <is>
@@ -18762,7 +18762,7 @@
         </is>
       </c>
       <c r="B389" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C389" t="inlineStr">
         <is>
@@ -18809,7 +18809,7 @@
         </is>
       </c>
       <c r="B390" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C390" t="inlineStr">
         <is>
@@ -18856,7 +18856,7 @@
         </is>
       </c>
       <c r="B391" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C391" t="inlineStr">
         <is>
@@ -18903,7 +18903,7 @@
         </is>
       </c>
       <c r="B392" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C392" t="inlineStr">
         <is>
@@ -18950,7 +18950,7 @@
         </is>
       </c>
       <c r="B393" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C393" t="inlineStr">
         <is>
@@ -18997,7 +18997,7 @@
         </is>
       </c>
       <c r="B394" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C394" t="inlineStr">
         <is>
@@ -19044,7 +19044,7 @@
         </is>
       </c>
       <c r="B395" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C395" t="inlineStr">
         <is>
@@ -19091,7 +19091,7 @@
         </is>
       </c>
       <c r="B396" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C396" t="inlineStr">
         <is>
@@ -19138,7 +19138,7 @@
         </is>
       </c>
       <c r="B397" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C397" t="inlineStr">
         <is>
@@ -19185,7 +19185,7 @@
         </is>
       </c>
       <c r="B398" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C398" t="inlineStr">
         <is>
@@ -19232,7 +19232,7 @@
         </is>
       </c>
       <c r="B399" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C399" t="inlineStr">
         <is>
@@ -19279,7 +19279,7 @@
         </is>
       </c>
       <c r="B400" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C400" t="inlineStr">
         <is>
@@ -19326,7 +19326,7 @@
         </is>
       </c>
       <c r="B401" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C401" t="inlineStr">
         <is>
@@ -19373,7 +19373,7 @@
         </is>
       </c>
       <c r="B402" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C402" t="inlineStr">
         <is>
@@ -19420,7 +19420,7 @@
         </is>
       </c>
       <c r="B403" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C403" t="inlineStr">
         <is>
@@ -19467,7 +19467,7 @@
         </is>
       </c>
       <c r="B404" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C404" t="inlineStr">
         <is>
@@ -19514,7 +19514,7 @@
         </is>
       </c>
       <c r="B405" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C405" t="inlineStr">
         <is>
@@ -19561,7 +19561,7 @@
         </is>
       </c>
       <c r="B406" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C406" t="inlineStr">
         <is>
@@ -19608,7 +19608,7 @@
         </is>
       </c>
       <c r="B407" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C407" t="inlineStr">
         <is>
@@ -19655,7 +19655,7 @@
         </is>
       </c>
       <c r="B408" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C408" t="inlineStr">
         <is>
@@ -19702,7 +19702,7 @@
         </is>
       </c>
       <c r="B409" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C409" t="inlineStr">
         <is>
@@ -19749,7 +19749,7 @@
         </is>
       </c>
       <c r="B410" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C410" t="inlineStr">
         <is>
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="B411" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C411" t="inlineStr">
         <is>
@@ -19843,7 +19843,7 @@
         </is>
       </c>
       <c r="B412" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C412" t="inlineStr">
         <is>
@@ -19890,7 +19890,7 @@
         </is>
       </c>
       <c r="B413" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C413" t="inlineStr">
         <is>
@@ -19937,7 +19937,7 @@
         </is>
       </c>
       <c r="B414" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C414" t="inlineStr">
         <is>
@@ -19984,7 +19984,7 @@
         </is>
       </c>
       <c r="B415" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C415" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         </is>
       </c>
       <c r="B416" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C416" t="inlineStr">
         <is>
@@ -20078,7 +20078,7 @@
         </is>
       </c>
       <c r="B417" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C417" t="inlineStr">
         <is>
@@ -20125,7 +20125,7 @@
         </is>
       </c>
       <c r="B418" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C418" t="inlineStr">
         <is>
@@ -20172,7 +20172,7 @@
         </is>
       </c>
       <c r="B419" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C419" t="inlineStr">
         <is>
@@ -20219,7 +20219,7 @@
         </is>
       </c>
       <c r="B420" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C420" t="inlineStr">
         <is>
@@ -20270,7 +20270,7 @@
         </is>
       </c>
       <c r="B421" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C421" t="inlineStr">
         <is>
@@ -20317,7 +20317,7 @@
         </is>
       </c>
       <c r="B422" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C422" t="inlineStr">
         <is>
@@ -20364,7 +20364,7 @@
         </is>
       </c>
       <c r="B423" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C423" t="inlineStr">
         <is>
@@ -20411,7 +20411,7 @@
         </is>
       </c>
       <c r="B424" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C424" t="inlineStr">
         <is>
@@ -20462,7 +20462,7 @@
         </is>
       </c>
       <c r="B425" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C425" t="inlineStr">
         <is>
@@ -20509,7 +20509,7 @@
         </is>
       </c>
       <c r="B426" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C426" t="inlineStr">
         <is>
@@ -20556,7 +20556,7 @@
         </is>
       </c>
       <c r="B427" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C427" t="inlineStr">
         <is>
@@ -20603,7 +20603,7 @@
         </is>
       </c>
       <c r="B428" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C428" t="inlineStr">
         <is>
@@ -20650,7 +20650,7 @@
         </is>
       </c>
       <c r="B429" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C429" t="inlineStr">
         <is>
@@ -20697,7 +20697,7 @@
         </is>
       </c>
       <c r="B430" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C430" t="inlineStr">
         <is>
@@ -20744,7 +20744,7 @@
         </is>
       </c>
       <c r="B431" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C431" t="inlineStr">
         <is>
@@ -20791,7 +20791,7 @@
         </is>
       </c>
       <c r="B432" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C432" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         </is>
       </c>
       <c r="B433" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C433" t="inlineStr">
         <is>
@@ -20885,7 +20885,7 @@
         </is>
       </c>
       <c r="B434" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C434" t="inlineStr">
         <is>
@@ -20932,7 +20932,7 @@
         </is>
       </c>
       <c r="B435" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C435" t="inlineStr">
         <is>
@@ -20979,7 +20979,7 @@
         </is>
       </c>
       <c r="B436" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C436" t="inlineStr">
         <is>
@@ -21026,7 +21026,7 @@
         </is>
       </c>
       <c r="B437" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C437" t="inlineStr">
         <is>
@@ -21073,7 +21073,7 @@
         </is>
       </c>
       <c r="B438" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C438" t="inlineStr">
         <is>
@@ -21120,7 +21120,7 @@
         </is>
       </c>
       <c r="B439" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C439" t="inlineStr">
         <is>
@@ -21167,7 +21167,7 @@
         </is>
       </c>
       <c r="B440" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C440" t="inlineStr">
         <is>
@@ -21214,7 +21214,7 @@
         </is>
       </c>
       <c r="B441" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C441" t="inlineStr">
         <is>
@@ -21261,7 +21261,7 @@
         </is>
       </c>
       <c r="B442" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C442" t="inlineStr">
         <is>
@@ -21308,7 +21308,7 @@
         </is>
       </c>
       <c r="B443" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C443" t="inlineStr">
         <is>
@@ -21355,7 +21355,7 @@
         </is>
       </c>
       <c r="B444" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C444" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         </is>
       </c>
       <c r="B445" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C445" t="inlineStr">
         <is>
@@ -21449,7 +21449,7 @@
         </is>
       </c>
       <c r="B446" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C446" t="inlineStr">
         <is>
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="B447" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C447" t="inlineStr">
         <is>
@@ -21543,7 +21543,7 @@
         </is>
       </c>
       <c r="B448" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C448" t="inlineStr">
         <is>
@@ -21590,7 +21590,7 @@
         </is>
       </c>
       <c r="B449" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C449" t="inlineStr">
         <is>
@@ -21637,7 +21637,7 @@
         </is>
       </c>
       <c r="B450" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C450" t="inlineStr">
         <is>
@@ -21684,7 +21684,7 @@
         </is>
       </c>
       <c r="B451" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C451" t="inlineStr">
         <is>
@@ -21731,7 +21731,7 @@
         </is>
       </c>
       <c r="B452" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C452" t="inlineStr">
         <is>
@@ -21778,7 +21778,7 @@
         </is>
       </c>
       <c r="B453" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C453" t="inlineStr">
         <is>
@@ -21825,7 +21825,7 @@
         </is>
       </c>
       <c r="B454" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C454" t="inlineStr">
         <is>
@@ -21872,7 +21872,7 @@
         </is>
       </c>
       <c r="B455" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C455" t="inlineStr">
         <is>
@@ -21919,7 +21919,7 @@
         </is>
       </c>
       <c r="B456" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C456" t="inlineStr">
         <is>
@@ -21966,7 +21966,7 @@
         </is>
       </c>
       <c r="B457" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C457" t="inlineStr">
         <is>
@@ -22013,7 +22013,7 @@
         </is>
       </c>
       <c r="B458" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C458" t="inlineStr">
         <is>
@@ -22060,7 +22060,7 @@
         </is>
       </c>
       <c r="B459" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C459" t="inlineStr">
         <is>
@@ -22107,7 +22107,7 @@
         </is>
       </c>
       <c r="B460" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C460" t="inlineStr">
         <is>
@@ -22154,7 +22154,7 @@
         </is>
       </c>
       <c r="B461" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C461" t="inlineStr">
         <is>
@@ -22201,7 +22201,7 @@
         </is>
       </c>
       <c r="B462" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C462" t="inlineStr">
         <is>
@@ -22248,7 +22248,7 @@
         </is>
       </c>
       <c r="B463" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C463" t="inlineStr">
         <is>
@@ -22295,7 +22295,7 @@
         </is>
       </c>
       <c r="B464" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C464" t="inlineStr">
         <is>
@@ -22342,7 +22342,7 @@
         </is>
       </c>
       <c r="B465" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C465" t="inlineStr">
         <is>
@@ -22389,7 +22389,7 @@
         </is>
       </c>
       <c r="B466" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C466" t="inlineStr">
         <is>
@@ -22436,7 +22436,7 @@
         </is>
       </c>
       <c r="B467" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C467" t="inlineStr">
         <is>
@@ -22483,7 +22483,7 @@
         </is>
       </c>
       <c r="B468" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C468" t="inlineStr">
         <is>
@@ -22534,7 +22534,7 @@
         </is>
       </c>
       <c r="B469" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C469" t="inlineStr">
         <is>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="B470" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C470" t="inlineStr">
         <is>
@@ -22628,7 +22628,7 @@
         </is>
       </c>
       <c r="B471" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C471" t="inlineStr">
         <is>
@@ -22675,7 +22675,7 @@
         </is>
       </c>
       <c r="B472" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C472" t="inlineStr">
         <is>
@@ -22722,7 +22722,7 @@
         </is>
       </c>
       <c r="B473" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C473" t="inlineStr">
         <is>
@@ -22769,7 +22769,7 @@
         </is>
       </c>
       <c r="B474" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C474" t="inlineStr">
         <is>
@@ -22816,7 +22816,7 @@
         </is>
       </c>
       <c r="B475" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C475" t="inlineStr">
         <is>
@@ -22863,7 +22863,7 @@
         </is>
       </c>
       <c r="B476" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C476" t="inlineStr">
         <is>
@@ -22910,7 +22910,7 @@
         </is>
       </c>
       <c r="B477" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C477" t="inlineStr">
         <is>
@@ -22957,7 +22957,7 @@
         </is>
       </c>
       <c r="B478" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C478" t="inlineStr">
         <is>
@@ -23008,7 +23008,7 @@
         </is>
       </c>
       <c r="B479" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C479" t="inlineStr">
         <is>
@@ -23055,7 +23055,7 @@
         </is>
       </c>
       <c r="B480" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C480" t="inlineStr">
         <is>
@@ -23102,7 +23102,7 @@
         </is>
       </c>
       <c r="B481" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C481" t="inlineStr">
         <is>
@@ -23149,7 +23149,7 @@
         </is>
       </c>
       <c r="B482" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C482" t="inlineStr">
         <is>
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="B483" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C483" t="inlineStr">
         <is>
@@ -23243,7 +23243,7 @@
         </is>
       </c>
       <c r="B484" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C484" t="inlineStr">
         <is>
@@ -23290,7 +23290,7 @@
         </is>
       </c>
       <c r="B485" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C485" t="inlineStr">
         <is>
@@ -23337,7 +23337,7 @@
         </is>
       </c>
       <c r="B486" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C486" t="inlineStr">
         <is>
@@ -23384,7 +23384,7 @@
         </is>
       </c>
       <c r="B487" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C487" t="inlineStr">
         <is>
@@ -23431,7 +23431,7 @@
         </is>
       </c>
       <c r="B488" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C488" t="inlineStr">
         <is>
@@ -23478,7 +23478,7 @@
         </is>
       </c>
       <c r="B489" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C489" t="inlineStr">
         <is>
@@ -23525,7 +23525,7 @@
         </is>
       </c>
       <c r="B490" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C490" t="inlineStr">
         <is>
@@ -23572,7 +23572,7 @@
         </is>
       </c>
       <c r="B491" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C491" t="inlineStr">
         <is>
@@ -23623,7 +23623,7 @@
         </is>
       </c>
       <c r="B492" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C492" t="inlineStr">
         <is>
@@ -23670,7 +23670,7 @@
         </is>
       </c>
       <c r="B493" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C493" t="inlineStr">
         <is>
@@ -23717,7 +23717,7 @@
         </is>
       </c>
       <c r="B494" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C494" t="inlineStr">
         <is>
@@ -23764,7 +23764,7 @@
         </is>
       </c>
       <c r="B495" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C495" t="inlineStr">
         <is>
@@ -23815,7 +23815,7 @@
         </is>
       </c>
       <c r="B496" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C496" t="inlineStr">
         <is>
@@ -23866,7 +23866,7 @@
         </is>
       </c>
       <c r="B497" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C497" t="inlineStr">
         <is>
@@ -23913,7 +23913,7 @@
         </is>
       </c>
       <c r="B498" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C498" t="inlineStr">
         <is>
@@ -23960,7 +23960,7 @@
         </is>
       </c>
       <c r="B499" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C499" t="inlineStr">
         <is>
@@ -24007,7 +24007,7 @@
         </is>
       </c>
       <c r="B500" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C500" t="inlineStr">
         <is>
@@ -24054,7 +24054,7 @@
         </is>
       </c>
       <c r="B501" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C501" t="inlineStr">
         <is>
@@ -24101,7 +24101,7 @@
         </is>
       </c>
       <c r="B502" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C502" t="inlineStr">
         <is>
@@ -24148,7 +24148,7 @@
         </is>
       </c>
       <c r="B503" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C503" t="inlineStr">
         <is>
@@ -24195,7 +24195,7 @@
         </is>
       </c>
       <c r="B504" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C504" t="inlineStr">
         <is>
@@ -24242,7 +24242,7 @@
         </is>
       </c>
       <c r="B505" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C505" t="inlineStr">
         <is>
@@ -24293,7 +24293,7 @@
         </is>
       </c>
       <c r="B506" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C506" t="inlineStr">
         <is>
@@ -24340,7 +24340,7 @@
         </is>
       </c>
       <c r="B507" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C507" t="inlineStr">
         <is>
@@ -24387,7 +24387,7 @@
         </is>
       </c>
       <c r="B508" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C508" t="inlineStr">
         <is>
@@ -24434,7 +24434,7 @@
         </is>
       </c>
       <c r="B509" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C509" t="inlineStr">
         <is>
@@ -24485,7 +24485,7 @@
         </is>
       </c>
       <c r="B510" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C510" t="inlineStr">
         <is>
@@ -24532,7 +24532,7 @@
         </is>
       </c>
       <c r="B511" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C511" t="inlineStr">
         <is>
@@ -24579,7 +24579,7 @@
         </is>
       </c>
       <c r="B512" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C512" t="inlineStr">
         <is>
@@ -24626,7 +24626,7 @@
         </is>
       </c>
       <c r="B513" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C513" t="inlineStr">
         <is>
@@ -24673,7 +24673,7 @@
         </is>
       </c>
       <c r="B514" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C514" t="inlineStr">
         <is>
@@ -24720,7 +24720,7 @@
         </is>
       </c>
       <c r="B515" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C515" t="inlineStr">
         <is>
@@ -24767,7 +24767,7 @@
         </is>
       </c>
       <c r="B516" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C516" t="inlineStr">
         <is>
@@ -24814,7 +24814,7 @@
         </is>
       </c>
       <c r="B517" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C517" t="inlineStr">
         <is>
@@ -24861,7 +24861,7 @@
         </is>
       </c>
       <c r="B518" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C518" t="inlineStr">
         <is>
@@ -24908,7 +24908,7 @@
         </is>
       </c>
       <c r="B519" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C519" t="inlineStr">
         <is>
@@ -24955,7 +24955,7 @@
         </is>
       </c>
       <c r="B520" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C520" t="inlineStr">
         <is>
@@ -25002,7 +25002,7 @@
         </is>
       </c>
       <c r="B521" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C521" t="inlineStr">
         <is>
@@ -25049,7 +25049,7 @@
         </is>
       </c>
       <c r="B522" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C522" t="inlineStr">
         <is>
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="B523" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C523" t="inlineStr">
         <is>
@@ -25143,7 +25143,7 @@
         </is>
       </c>
       <c r="B524" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C524" t="inlineStr">
         <is>
@@ -25190,7 +25190,7 @@
         </is>
       </c>
       <c r="B525" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C525" t="inlineStr">
         <is>
@@ -25237,7 +25237,7 @@
         </is>
       </c>
       <c r="B526" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C526" t="inlineStr">
         <is>
@@ -25284,7 +25284,7 @@
         </is>
       </c>
       <c r="B527" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C527" t="inlineStr">
         <is>
@@ -25331,7 +25331,7 @@
         </is>
       </c>
       <c r="B528" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C528" t="inlineStr">
         <is>
@@ -25378,7 +25378,7 @@
         </is>
       </c>
       <c r="B529" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C529" t="inlineStr">
         <is>
@@ -25425,7 +25425,7 @@
         </is>
       </c>
       <c r="B530" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C530" t="inlineStr">
         <is>
@@ -25472,7 +25472,7 @@
         </is>
       </c>
       <c r="B531" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C531" t="inlineStr">
         <is>
@@ -25519,7 +25519,7 @@
         </is>
       </c>
       <c r="B532" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C532" t="inlineStr">
         <is>
@@ -25566,7 +25566,7 @@
         </is>
       </c>
       <c r="B533" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C533" t="inlineStr">
         <is>
@@ -25613,7 +25613,7 @@
         </is>
       </c>
       <c r="B534" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C534" t="inlineStr">
         <is>
@@ -25660,7 +25660,7 @@
         </is>
       </c>
       <c r="B535" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C535" t="inlineStr">
         <is>
@@ -25707,7 +25707,7 @@
         </is>
       </c>
       <c r="B536" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C536" t="inlineStr">
         <is>
@@ -25754,7 +25754,7 @@
         </is>
       </c>
       <c r="B537" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C537" t="inlineStr">
         <is>
@@ -25801,7 +25801,7 @@
         </is>
       </c>
       <c r="B538" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C538" t="inlineStr">
         <is>
@@ -25852,7 +25852,7 @@
         </is>
       </c>
       <c r="B539" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C539" t="inlineStr">
         <is>
@@ -25899,7 +25899,7 @@
         </is>
       </c>
       <c r="B540" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C540" t="inlineStr">
         <is>
@@ -25950,7 +25950,7 @@
         </is>
       </c>
       <c r="B541" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C541" t="inlineStr">
         <is>
@@ -25997,7 +25997,7 @@
         </is>
       </c>
       <c r="B542" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C542" t="inlineStr">
         <is>
@@ -26044,7 +26044,7 @@
         </is>
       </c>
       <c r="B543" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C543" t="inlineStr">
         <is>
@@ -26091,7 +26091,7 @@
         </is>
       </c>
       <c r="B544" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C544" t="inlineStr">
         <is>
@@ -26138,7 +26138,7 @@
         </is>
       </c>
       <c r="B545" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C545" t="inlineStr">
         <is>
@@ -26185,7 +26185,7 @@
         </is>
       </c>
       <c r="B546" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C546" t="inlineStr">
         <is>
@@ -26232,7 +26232,7 @@
         </is>
       </c>
       <c r="B547" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C547" t="inlineStr">
         <is>
@@ -26279,7 +26279,7 @@
         </is>
       </c>
       <c r="B548" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C548" t="inlineStr">
         <is>
@@ -26326,7 +26326,7 @@
         </is>
       </c>
       <c r="B549" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C549" t="inlineStr">
         <is>
@@ -26373,7 +26373,7 @@
         </is>
       </c>
       <c r="B550" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C550" t="inlineStr">
         <is>
@@ -26420,7 +26420,7 @@
         </is>
       </c>
       <c r="B551" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C551" t="inlineStr">
         <is>
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="B552" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C552" t="inlineStr">
         <is>
@@ -26522,7 +26522,7 @@
         </is>
       </c>
       <c r="B553" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C553" t="inlineStr">
         <is>
@@ -26573,7 +26573,7 @@
         </is>
       </c>
       <c r="B554" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C554" t="inlineStr">
         <is>
@@ -26624,7 +26624,7 @@
         </is>
       </c>
       <c r="B555" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C555" t="inlineStr">
         <is>
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="B556" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C556" t="inlineStr">
         <is>
@@ -26718,7 +26718,7 @@
         </is>
       </c>
       <c r="B557" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C557" t="inlineStr">
         <is>
@@ -26765,7 +26765,7 @@
         </is>
       </c>
       <c r="B558" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C558" t="inlineStr">
         <is>
@@ -26812,7 +26812,7 @@
         </is>
       </c>
       <c r="B559" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C559" t="inlineStr">
         <is>
@@ -26863,7 +26863,7 @@
         </is>
       </c>
       <c r="B560" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C560" t="inlineStr">
         <is>
@@ -26910,7 +26910,7 @@
         </is>
       </c>
       <c r="B561" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C561" t="inlineStr">
         <is>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B562" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C562" t="inlineStr">
         <is>
@@ -27004,7 +27004,7 @@
         </is>
       </c>
       <c r="B563" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C563" t="inlineStr">
         <is>
@@ -27051,7 +27051,7 @@
         </is>
       </c>
       <c r="B564" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C564" t="inlineStr">
         <is>
@@ -27098,7 +27098,7 @@
         </is>
       </c>
       <c r="B565" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C565" t="inlineStr">
         <is>
@@ -27149,7 +27149,7 @@
         </is>
       </c>
       <c r="B566" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C566" t="inlineStr">
         <is>
@@ -27196,7 +27196,7 @@
         </is>
       </c>
       <c r="B567" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C567" t="inlineStr">
         <is>
@@ -27243,7 +27243,7 @@
         </is>
       </c>
       <c r="B568" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C568" t="inlineStr">
         <is>
@@ -27290,7 +27290,7 @@
         </is>
       </c>
       <c r="B569" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C569" t="inlineStr">
         <is>
@@ -27337,7 +27337,7 @@
         </is>
       </c>
       <c r="B570" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C570" t="inlineStr">
         <is>
@@ -27384,7 +27384,7 @@
         </is>
       </c>
       <c r="B571" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C571" t="inlineStr">
         <is>
@@ -27431,7 +27431,7 @@
         </is>
       </c>
       <c r="B572" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C572" t="inlineStr">
         <is>
@@ -27478,7 +27478,7 @@
         </is>
       </c>
       <c r="B573" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C573" t="inlineStr">
         <is>
@@ -27525,7 +27525,7 @@
         </is>
       </c>
       <c r="B574" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C574" t="inlineStr">
         <is>
@@ -27572,7 +27572,7 @@
         </is>
       </c>
       <c r="B575" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C575" t="inlineStr">
         <is>
@@ -27619,7 +27619,7 @@
         </is>
       </c>
       <c r="B576" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C576" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         </is>
       </c>
       <c r="B577" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C577" t="inlineStr">
         <is>
@@ -27713,7 +27713,7 @@
         </is>
       </c>
       <c r="B578" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C578" t="inlineStr">
         <is>
@@ -27760,7 +27760,7 @@
         </is>
       </c>
       <c r="B579" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C579" t="inlineStr">
         <is>
@@ -27807,7 +27807,7 @@
         </is>
       </c>
       <c r="B580" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C580" t="inlineStr">
         <is>
@@ -27854,7 +27854,7 @@
         </is>
       </c>
       <c r="B581" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C581" t="inlineStr">
         <is>
@@ -27901,7 +27901,7 @@
         </is>
       </c>
       <c r="B582" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C582" t="inlineStr">
         <is>
@@ -27948,7 +27948,7 @@
         </is>
       </c>
       <c r="B583" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C583" t="inlineStr">
         <is>
@@ -27995,7 +27995,7 @@
         </is>
       </c>
       <c r="B584" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C584" t="inlineStr">
         <is>
@@ -28046,7 +28046,7 @@
         </is>
       </c>
       <c r="B585" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C585" t="inlineStr">
         <is>
@@ -28097,7 +28097,7 @@
         </is>
       </c>
       <c r="B586" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C586" t="inlineStr">
         <is>
@@ -28144,7 +28144,7 @@
         </is>
       </c>
       <c r="B587" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C587" t="inlineStr">
         <is>
@@ -28191,7 +28191,7 @@
         </is>
       </c>
       <c r="B588" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C588" t="inlineStr">
         <is>
@@ -28238,7 +28238,7 @@
         </is>
       </c>
       <c r="B589" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C589" t="inlineStr">
         <is>
@@ -28285,7 +28285,7 @@
         </is>
       </c>
       <c r="B590" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C590" t="inlineStr">
         <is>
@@ -28332,7 +28332,7 @@
         </is>
       </c>
       <c r="B591" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C591" t="inlineStr">
         <is>
@@ -28379,7 +28379,7 @@
         </is>
       </c>
       <c r="B592" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C592" t="inlineStr">
         <is>
@@ -28430,7 +28430,7 @@
         </is>
       </c>
       <c r="B593" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C593" t="inlineStr">
         <is>
@@ -28477,7 +28477,7 @@
         </is>
       </c>
       <c r="B594" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C594" t="inlineStr">
         <is>
@@ -28524,7 +28524,7 @@
         </is>
       </c>
       <c r="B595" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C595" t="inlineStr">
         <is>
@@ -28571,7 +28571,7 @@
         </is>
       </c>
       <c r="B596" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C596" t="inlineStr">
         <is>
@@ -28618,7 +28618,7 @@
         </is>
       </c>
       <c r="B597" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C597" t="inlineStr">
         <is>
@@ -28665,7 +28665,7 @@
         </is>
       </c>
       <c r="B598" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C598" t="inlineStr">
         <is>
@@ -28712,7 +28712,7 @@
         </is>
       </c>
       <c r="B599" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C599" t="inlineStr">
         <is>
@@ -28759,7 +28759,7 @@
         </is>
       </c>
       <c r="B600" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C600" t="inlineStr">
         <is>
@@ -28806,7 +28806,7 @@
         </is>
       </c>
       <c r="B601" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C601" t="inlineStr">
         <is>
@@ -28853,7 +28853,7 @@
         </is>
       </c>
       <c r="B602" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C602" t="inlineStr">
         <is>
@@ -28900,7 +28900,7 @@
         </is>
       </c>
       <c r="B603" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C603" t="inlineStr">
         <is>
@@ -28947,7 +28947,7 @@
         </is>
       </c>
       <c r="B604" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C604" t="inlineStr">
         <is>
@@ -28994,7 +28994,7 @@
         </is>
       </c>
       <c r="B605" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C605" t="inlineStr">
         <is>
@@ -29041,7 +29041,7 @@
         </is>
       </c>
       <c r="B606" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C606" t="inlineStr">
         <is>
@@ -29088,7 +29088,7 @@
         </is>
       </c>
       <c r="B607" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C607" t="inlineStr">
         <is>
@@ -29135,7 +29135,7 @@
         </is>
       </c>
       <c r="B608" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C608" t="inlineStr">
         <is>
@@ -29182,7 +29182,7 @@
         </is>
       </c>
       <c r="B609" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C609" t="inlineStr">
         <is>
@@ -29229,7 +29229,7 @@
         </is>
       </c>
       <c r="B610" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C610" t="inlineStr">
         <is>
@@ -29276,7 +29276,7 @@
         </is>
       </c>
       <c r="B611" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C611" t="inlineStr">
         <is>
@@ -29323,7 +29323,7 @@
         </is>
       </c>
       <c r="B612" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C612" t="inlineStr">
         <is>
@@ -29370,7 +29370,7 @@
         </is>
       </c>
       <c r="B613" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C613" t="inlineStr">
         <is>
@@ -29417,7 +29417,7 @@
         </is>
       </c>
       <c r="B614" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C614" t="inlineStr">
         <is>
@@ -29464,7 +29464,7 @@
         </is>
       </c>
       <c r="B615" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C615" t="inlineStr">
         <is>
@@ -29511,7 +29511,7 @@
         </is>
       </c>
       <c r="B616" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C616" t="inlineStr">
         <is>
@@ -29558,7 +29558,7 @@
         </is>
       </c>
       <c r="B617" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C617" t="inlineStr">
         <is>
@@ -29605,7 +29605,7 @@
         </is>
       </c>
       <c r="B618" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C618" t="inlineStr">
         <is>
@@ -29652,7 +29652,7 @@
         </is>
       </c>
       <c r="B619" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C619" t="inlineStr">
         <is>
@@ -29699,7 +29699,7 @@
         </is>
       </c>
       <c r="B620" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C620" t="inlineStr">
         <is>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B621" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C621" t="inlineStr">
         <is>
@@ -29793,7 +29793,7 @@
         </is>
       </c>
       <c r="B622" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C622" t="inlineStr">
         <is>
@@ -29840,7 +29840,7 @@
         </is>
       </c>
       <c r="B623" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C623" t="inlineStr">
         <is>
@@ -29887,7 +29887,7 @@
         </is>
       </c>
       <c r="B624" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C624" t="inlineStr">
         <is>
@@ -29934,7 +29934,7 @@
         </is>
       </c>
       <c r="B625" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C625" t="inlineStr">
         <is>
@@ -29981,7 +29981,7 @@
         </is>
       </c>
       <c r="B626" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C626" t="inlineStr">
         <is>
@@ -30032,7 +30032,7 @@
         </is>
       </c>
       <c r="B627" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C627" t="inlineStr">
         <is>
@@ -30079,7 +30079,7 @@
         </is>
       </c>
       <c r="B628" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C628" t="inlineStr">
         <is>
@@ -30126,7 +30126,7 @@
         </is>
       </c>
       <c r="B629" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C629" t="inlineStr">
         <is>
@@ -30177,7 +30177,7 @@
         </is>
       </c>
       <c r="B630" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C630" t="inlineStr">
         <is>
@@ -30224,7 +30224,7 @@
         </is>
       </c>
       <c r="B631" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C631" t="inlineStr">
         <is>
@@ -30271,7 +30271,7 @@
         </is>
       </c>
       <c r="B632" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C632" t="inlineStr">
         <is>
@@ -30318,7 +30318,7 @@
         </is>
       </c>
       <c r="B633" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C633" t="inlineStr">
         <is>
@@ -30365,7 +30365,7 @@
         </is>
       </c>
       <c r="B634" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C634" t="inlineStr">
         <is>
@@ -30412,7 +30412,7 @@
         </is>
       </c>
       <c r="B635" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C635" t="inlineStr">
         <is>
@@ -30459,7 +30459,7 @@
         </is>
       </c>
       <c r="B636" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C636" t="inlineStr">
         <is>
@@ -30506,7 +30506,7 @@
         </is>
       </c>
       <c r="B637" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C637" t="inlineStr">
         <is>
@@ -30553,7 +30553,7 @@
         </is>
       </c>
       <c r="B638" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C638" t="inlineStr">
         <is>
@@ -30600,7 +30600,7 @@
         </is>
       </c>
       <c r="B639" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C639" t="inlineStr">
         <is>
@@ -30647,7 +30647,7 @@
         </is>
       </c>
       <c r="B640" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C640" t="inlineStr">
         <is>
@@ -30694,7 +30694,7 @@
         </is>
       </c>
       <c r="B641" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C641" t="inlineStr">
         <is>
@@ -30741,7 +30741,7 @@
         </is>
       </c>
       <c r="B642" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C642" t="inlineStr">
         <is>
@@ -30788,7 +30788,7 @@
         </is>
       </c>
       <c r="B643" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C643" t="inlineStr">
         <is>
@@ -30835,7 +30835,7 @@
         </is>
       </c>
       <c r="B644" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C644" t="inlineStr">
         <is>
@@ -30882,7 +30882,7 @@
         </is>
       </c>
       <c r="B645" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C645" t="inlineStr">
         <is>
@@ -30929,7 +30929,7 @@
         </is>
       </c>
       <c r="B646" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C646" t="inlineStr">
         <is>
@@ -30976,7 +30976,7 @@
         </is>
       </c>
       <c r="B647" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C647" t="inlineStr">
         <is>
@@ -31023,7 +31023,7 @@
         </is>
       </c>
       <c r="B648" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C648" t="inlineStr">
         <is>
@@ -31070,7 +31070,7 @@
         </is>
       </c>
       <c r="B649" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C649" t="inlineStr">
         <is>
@@ -31117,7 +31117,7 @@
         </is>
       </c>
       <c r="B650" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C650" t="inlineStr">
         <is>
@@ -31164,7 +31164,7 @@
         </is>
       </c>
       <c r="B651" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C651" t="inlineStr">
         <is>
@@ -31211,7 +31211,7 @@
         </is>
       </c>
       <c r="B652" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C652" t="inlineStr">
         <is>
@@ -31258,7 +31258,7 @@
         </is>
       </c>
       <c r="B653" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C653" t="inlineStr">
         <is>
@@ -31305,7 +31305,7 @@
         </is>
       </c>
       <c r="B654" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C654" t="inlineStr">
         <is>
@@ -31352,7 +31352,7 @@
         </is>
       </c>
       <c r="B655" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C655" t="inlineStr">
         <is>
@@ -31399,7 +31399,7 @@
         </is>
       </c>
       <c r="B656" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C656" t="inlineStr">
         <is>
@@ -31446,7 +31446,7 @@
         </is>
       </c>
       <c r="B657" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C657" t="inlineStr">
         <is>
@@ -31493,7 +31493,7 @@
         </is>
       </c>
       <c r="B658" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C658" t="inlineStr">
         <is>
@@ -31540,7 +31540,7 @@
         </is>
       </c>
       <c r="B659" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C659" t="inlineStr">
         <is>
@@ -31591,7 +31591,7 @@
         </is>
       </c>
       <c r="B660" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C660" t="inlineStr">
         <is>
@@ -31638,7 +31638,7 @@
         </is>
       </c>
       <c r="B661" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C661" t="inlineStr">
         <is>
@@ -31685,7 +31685,7 @@
         </is>
       </c>
       <c r="B662" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C662" t="inlineStr">
         <is>
@@ -31732,7 +31732,7 @@
         </is>
       </c>
       <c r="B663" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C663" t="inlineStr">
         <is>
@@ -31783,7 +31783,7 @@
         </is>
       </c>
       <c r="B664" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C664" t="inlineStr">
         <is>
@@ -31830,7 +31830,7 @@
         </is>
       </c>
       <c r="B665" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C665" t="inlineStr">
         <is>
@@ -31881,7 +31881,7 @@
         </is>
       </c>
       <c r="B666" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C666" t="inlineStr">
         <is>
@@ -31932,7 +31932,7 @@
         </is>
       </c>
       <c r="B667" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C667" t="inlineStr">
         <is>
@@ -31983,7 +31983,7 @@
         </is>
       </c>
       <c r="B668" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C668" t="inlineStr">
         <is>
@@ -32034,7 +32034,7 @@
         </is>
       </c>
       <c r="B669" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C669" t="inlineStr">
         <is>
@@ -32085,7 +32085,7 @@
         </is>
       </c>
       <c r="B670" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C670" t="inlineStr">
         <is>
@@ -32136,7 +32136,7 @@
         </is>
       </c>
       <c r="B671" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C671" t="inlineStr">
         <is>
@@ -32187,7 +32187,7 @@
         </is>
       </c>
       <c r="B672" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C672" t="inlineStr">
         <is>
@@ -32238,7 +32238,7 @@
         </is>
       </c>
       <c r="B673" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C673" t="inlineStr">
         <is>
@@ -32289,7 +32289,7 @@
         </is>
       </c>
       <c r="B674" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C674" t="inlineStr">
         <is>
@@ -32340,7 +32340,7 @@
         </is>
       </c>
       <c r="B675" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C675" t="inlineStr">
         <is>
@@ -32391,7 +32391,7 @@
         </is>
       </c>
       <c r="B676" t="n">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C676" t="inlineStr">
         <is>
